--- a/Curation Files/homology-tables/Weberian-app-homology-IDsUpdated.xlsx
+++ b/Curation Files/homology-tables/Weberian-app-homology-IDsUpdated.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="110">
   <si>
     <t>Publication</t>
   </si>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>UBERON_2001335^BFO:0000050(UBERON_2001877)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/</t>
+  </si>
+  <si>
+    <t>Uberon Purl</t>
+  </si>
+  <si>
+    <t>VTO Purl</t>
   </si>
 </sst>
 </file>
@@ -674,30 +683,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="36.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="48.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="1" customWidth="1"/>
+    <col min="14" max="14" width="44.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="31" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="44.33203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,46 +724,58 @@
         <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -757,47 +785,72 @@
       <c r="C2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1" t="str">
+        <f>CONCATENATE(G2,C2)</f>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/UBERON_2000429 </v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="str">
+        <f>CONCATENATE(G2,H2)</f>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0034989 </v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="str">
+        <f>CONCATENATE(L2,M2)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="S2" s="1" t="str">
+        <f>CONCATENATE(Q2,R2)</f>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="2">
+      <c r="W2" s="2">
         <v>39870</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -807,47 +860,72 @@
       <c r="C3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1" t="str">
+        <f>CONCATENATE(G3,C3)</f>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/UBERON_2000429 </v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="str">
+        <f t="shared" ref="I3:I54" si="0">CONCATENATE(G3,H3)</f>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0034989 </v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="str">
+        <f t="shared" ref="N3:N54" si="1">CONCATENATE(L3,M3)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="S3" s="1" t="str">
+        <f t="shared" ref="S3:S66" si="2">CONCATENATE(Q3,R3)</f>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="2">
+      <c r="W3" s="2">
         <v>39870</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -857,47 +935,72 @@
       <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1" t="str">
+        <f>CONCATENATE(G4,C4)</f>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/UBERON_2000429 </v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0034989 </v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="N4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="S4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="2">
+      <c r="W4" s="2">
         <v>39870</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -907,47 +1010,72 @@
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1" t="str">
+        <f>CONCATENATE(G5,C5)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000525</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001253</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="S5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="2">
+      <c r="W5" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -957,47 +1085,72 @@
       <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1" t="str">
+        <f>CONCATENATE(G6,C6)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000525</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001253</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="S6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="2">
+      <c r="W6" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1007,47 +1160,72 @@
       <c r="C7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1" t="str">
+        <f>CONCATENATE(G7,C7)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000525</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001253</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="S7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="2">
+      <c r="W7" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1057,47 +1235,72 @@
       <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1" t="str">
+        <f>CONCATENATE(G8,C8)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000525</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001253</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="2">
+      <c r="W8" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1107,47 +1310,72 @@
       <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1" t="str">
+        <f>CONCATENATE(G9,C9)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000525</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001253</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="S9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="2">
+      <c r="W9" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1157,47 +1385,72 @@
       <c r="C10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1" t="str">
+        <f>CONCATENATE(G10,C10)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000525</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001878</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="S10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="2">
+      <c r="W10" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1207,47 +1460,72 @@
       <c r="C11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1" t="str">
+        <f>CONCATENATE(G11,C11)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000698</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001882</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="S11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="2">
+      <c r="W11" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1257,47 +1535,72 @@
       <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="1" t="str">
+        <f>CONCATENATE(G12,C12)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000698</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="L12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001882</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="S12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="2">
+      <c r="W12" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1307,47 +1610,72 @@
       <c r="C13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="1" t="str">
+        <f>CONCATENATE(G13,C13)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000698</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001882</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="S13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="2">
+      <c r="W13" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1357,47 +1685,72 @@
       <c r="C14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1" t="str">
+        <f>CONCATENATE(G14,C14)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000698</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="L14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001883</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="S14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="2">
+      <c r="W14" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1407,47 +1760,72 @@
       <c r="C15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="1" t="str">
+        <f>CONCATENATE(G15,C15)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000698</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001883</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="S15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="2">
+      <c r="W15" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1457,47 +1835,72 @@
       <c r="C16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="1" t="str">
+        <f>CONCATENATE(G16,C16)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001171</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="L16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001396</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="S16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="2">
+      <c r="W16" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1507,47 +1910,72 @@
       <c r="C17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="1" t="str">
+        <f>CONCATENATE(G17,C17)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001171</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="L17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001396</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="S17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P17" s="2">
+      <c r="W17" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1557,47 +1985,72 @@
       <c r="C18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1" t="str">
+        <f>CONCATENATE(G18,C18)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001171</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="L18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001396</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="S18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="2">
+      <c r="W18" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1607,47 +2060,72 @@
       <c r="C19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="1" t="str">
+        <f>CONCATENATE(G19,C19)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="S19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="2">
+      <c r="W19" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1657,47 +2135,72 @@
       <c r="C20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="1" t="str">
+        <f>CONCATENATE(G20,C20)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="L20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="S20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="2">
+      <c r="W20" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1707,47 +2210,72 @@
       <c r="C21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="1" t="str">
+        <f>CONCATENATE(G21,C21)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="L21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="S21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="2">
+      <c r="W21" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1757,47 +2285,72 @@
       <c r="C22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="1" t="str">
+        <f>CONCATENATE(G22,C22)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="L22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="S22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
+      </c>
+      <c r="T22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="2">
+      <c r="W22" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1807,47 +2360,72 @@
       <c r="C23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1" t="str">
+        <f>CONCATENATE(G23,C23)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="L23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="S23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
+      </c>
+      <c r="T23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="2">
+      <c r="W23" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1857,47 +2435,72 @@
       <c r="C24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="1" t="str">
+        <f>CONCATENATE(G24,C24)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="L24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="S24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="2">
+      <c r="W24" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1907,47 +2510,72 @@
       <c r="C25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="1" t="str">
+        <f>CONCATENATE(G25,C25)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="L25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="S25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="U25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="V25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P25" s="2">
+      <c r="W25" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1957,47 +2585,72 @@
       <c r="C26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="1" t="str">
+        <f>CONCATENATE(G26,C26)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="S26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
+      </c>
+      <c r="T26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="U26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="2">
+      <c r="W26" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -2007,47 +2660,72 @@
       <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="1" t="str">
+        <f>CONCATENATE(G27,C27)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="L27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="S27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="U27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="2">
+      <c r="W27" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -2057,47 +2735,72 @@
       <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="1" t="str">
+        <f>CONCATENATE(G28,C28)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="L28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="S28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
+      </c>
+      <c r="T28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="V28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="2">
+      <c r="W28" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -2107,47 +2810,72 @@
       <c r="C29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="1" t="str">
+        <f>CONCATENATE(G29,C29)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="L29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="S29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="2">
+      <c r="W29" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -2157,47 +2885,72 @@
       <c r="C30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="1" t="str">
+        <f>CONCATENATE(G30,C30)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="L30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="N30" s="1" t="str">
+        <f>CONCATENATE(L30,M30)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="S30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
+      </c>
+      <c r="T30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="U30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="V30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="2">
+      <c r="W30" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -2207,47 +2960,72 @@
       <c r="C31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="1" t="str">
+        <f>CONCATENATE(G31,C31)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001885</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="S31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="V31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P31" s="2">
+      <c r="W31" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -2257,47 +3035,72 @@
       <c r="C32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="1" t="str">
+        <f>CONCATENATE(G32,C32)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="str">
+        <f>CONCATENATE(G32,H32)</f>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001885</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="S32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
+      </c>
+      <c r="T32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="U32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="V32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P32" s="2">
+      <c r="W32" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2307,47 +3110,72 @@
       <c r="C33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="1" t="str">
+        <f>CONCATENATE(G33,C33)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="L33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001885</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="S33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
+      </c>
+      <c r="T33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="V33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P33" s="2">
+      <c r="W33" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2357,47 +3185,72 @@
       <c r="C34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="1" t="str">
+        <f>CONCATENATE(G34,C34)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001885</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="Q34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="S34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="V34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P34" s="2">
+      <c r="W34" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -2407,47 +3260,72 @@
       <c r="C35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="1" t="str">
+        <f>CONCATENATE(G35,C35)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="L35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="Q35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="S35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="U35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="V35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P35" s="2">
+      <c r="W35" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -2457,47 +3335,72 @@
       <c r="C36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="1" t="str">
+        <f>CONCATENATE(G36,C36)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="L36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="S36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="U36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="V36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P36" s="2">
+      <c r="W36" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -2507,47 +3410,72 @@
       <c r="C37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="1" t="str">
+        <f>CONCATENATE(G37,C37)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="L37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="S37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="V37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P37" s="2">
+      <c r="W37" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
@@ -2557,47 +3485,72 @@
       <c r="C38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="1" t="str">
+        <f>CONCATENATE(G38,C38)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="L38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="S38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="U38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="V38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P38" s="2">
+      <c r="W38" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
@@ -2607,47 +3560,72 @@
       <c r="C39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="1" t="str">
+        <f>CONCATENATE(G39,C39)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="L39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001335</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="S39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="U39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="V39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="2">
+      <c r="W39" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
@@ -2657,47 +3635,72 @@
       <c r="C40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="1" t="str">
+        <f>CONCATENATE(G40,C40)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="L40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001335</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="S40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="U40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="V40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P40" s="2">
+      <c r="W40" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
@@ -2707,47 +3710,72 @@
       <c r="C41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="1" t="str">
+        <f>CONCATENATE(G41,C41)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="L41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001888</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="Q41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="S41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="U41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="V41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P41" s="2">
+      <c r="W41" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
@@ -2757,47 +3785,72 @@
       <c r="C42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="1" t="str">
+        <f>CONCATENATE(G42,C42)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="L42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001888</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="S42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="U42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="V42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P42" s="2">
+      <c r="W42" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
@@ -2807,47 +3860,72 @@
       <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="1" t="str">
+        <f>CONCATENATE(G43,C43)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="L43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001888</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="S43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="V43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P43" s="2">
+      <c r="W43" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
@@ -2857,47 +3935,72 @@
       <c r="C44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="1" t="str">
+        <f>CONCATENATE(G44,C44)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="L44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001888</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="Q44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="S44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="U44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="V44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="2">
+      <c r="W44" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
@@ -2907,47 +4010,72 @@
       <c r="C45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="1" t="str">
+        <f>CONCATENATE(G45,C45)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="L45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001889</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="S45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="V45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P45" s="2">
+      <c r="W45" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>70</v>
       </c>
@@ -2957,47 +4085,72 @@
       <c r="C46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="1" t="str">
+        <f>CONCATENATE(G46,C46)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="L46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001889</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="S46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="V46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P46" s="2">
+      <c r="W46" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
@@ -3007,47 +4160,72 @@
       <c r="C47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="1" t="str">
+        <f>CONCATENATE(G47,C47)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="str">
+        <f>CONCATENATE(G47,H47)</f>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="L47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="N47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001889</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="Q47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="S47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="U47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="V47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P47" s="2">
+      <c r="W47" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>73</v>
       </c>
@@ -3057,47 +4235,72 @@
       <c r="C48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="1" t="str">
+        <f>CONCATENATE(G48,C48)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="L48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="N48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001889</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="Q48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="S48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="U48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="V48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P48" s="2">
+      <c r="W48" s="2">
         <v>39902</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>76</v>
       </c>
@@ -3107,47 +4310,72 @@
       <c r="C49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="1" t="str">
+        <f>CONCATENATE(G49,C49)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="L49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="N49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001335^BFO:0000050(UBERON_2001877)</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="Q49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="S49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="U49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="V49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P49" s="2">
+      <c r="W49" s="2">
         <v>40305</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
@@ -3157,47 +4385,72 @@
       <c r="C50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="1" t="str">
+        <f>CONCATENATE(G50,C50)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="L50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="N50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001335^BFO:0000050(UBERON_2001877)</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="S50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="U50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="V50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P50" s="2">
+      <c r="W50" s="2">
         <v>40305</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,47 +4460,72 @@
       <c r="C51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="1" t="str">
+        <f>CONCATENATE(G51,C51)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="L51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="N51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001335^BFO:0000050(UBERON_2001877)</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="Q51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="S51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="U51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="V51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P51" s="2">
+      <c r="W51" s="2">
         <v>40305</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
@@ -3257,47 +4535,72 @@
       <c r="C52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="1" t="str">
+        <f>CONCATENATE(G52,C52)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="L52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="N52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001335^BFO:0000050(UBERON_2001877)</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="Q52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="S52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="U52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="V52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P52" s="2">
+      <c r="W52" s="2">
         <v>40305</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>79</v>
       </c>
@@ -3307,47 +4610,72 @@
       <c r="C53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="1" t="str">
+        <f>CONCATENATE(G53,C53)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001592</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="str">
+        <f>CONCATENATE(G53,H53)</f>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="L53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="N53" s="1" t="str">
+        <f>CONCATENATE(L53,M53)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="Q53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="S53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="U53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="V53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P53" s="2">
+      <c r="W53" s="2">
         <v>40305</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
@@ -3357,44 +4685,285 @@
       <c r="C54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="1" t="str">
+        <f>CONCATENATE(G54,C54)</f>
+        <v>http://purl.obolibrary.org/obo/UBERON_2000637</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="L54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="N54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="Q54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="S54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
+      </c>
+      <c r="T54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="U54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="V54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P54" s="2">
+      <c r="W54" s="2">
         <v>40305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S67" s="1" t="str">
+        <f t="shared" ref="S67:S90" si="3">CONCATENATE(Q67,R67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S75" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S77" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S78" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S81" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S84" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S85" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S86" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S87" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S88" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S90" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Curation Files/homology-tables/Weberian-app-homology-IDsUpdated.xlsx
+++ b/Curation Files/homology-tables/Weberian-app-homology-IDsUpdated.xlsx
@@ -685,9 +685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,7 +877,7 @@
         <v>88</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I54" si="0">CONCATENATE(G3,H3)</f>
+        <f>CONCATENATE(G3,H3)</f>
         <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0034989 </v>
       </c>
       <c r="J3" s="1" t="s">
@@ -893,7 +893,7 @@
         <v>93</v>
       </c>
       <c r="N3" s="1" t="str">
-        <f t="shared" ref="N3:N54" si="1">CONCATENATE(L3,M3)</f>
+        <f t="shared" ref="N3:N54" si="0">CONCATENATE(L3,M3)</f>
         <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -909,7 +909,7 @@
         <v>90</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S66" si="2">CONCATENATE(Q3,R3)</f>
+        <f t="shared" ref="S3:S66" si="1">CONCATENATE(Q3,R3)</f>
         <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
       </c>
       <c r="T3" s="1" t="s">
@@ -952,7 +952,7 @@
         <v>88</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G4,H4)</f>
         <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0034989 </v>
       </c>
       <c r="J4" s="1" t="s">
@@ -968,7 +968,7 @@
         <v>93</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -984,7 +984,7 @@
         <v>90</v>
       </c>
       <c r="S4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
       </c>
       <c r="T4" s="1" t="s">
@@ -1027,7 +1027,7 @@
         <v>89</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G5,H5)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1043,7 +1043,7 @@
         <v>94</v>
       </c>
       <c r="N5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001253</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -1059,7 +1059,7 @@
         <v>91</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G6,H6)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1118,7 +1118,7 @@
         <v>94</v>
       </c>
       <c r="N6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001253</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -1134,7 +1134,7 @@
         <v>91</v>
       </c>
       <c r="S6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T6" s="1" t="s">
@@ -1177,7 +1177,7 @@
         <v>89</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G7,H7)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1193,7 +1193,7 @@
         <v>94</v>
       </c>
       <c r="N7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001253</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -1209,7 +1209,7 @@
         <v>91</v>
       </c>
       <c r="S7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T7" s="1" t="s">
@@ -1252,7 +1252,7 @@
         <v>89</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G8,H8)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1268,7 +1268,7 @@
         <v>94</v>
       </c>
       <c r="N8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001253</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -1284,7 +1284,7 @@
         <v>91</v>
       </c>
       <c r="S8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T8" s="1" t="s">
@@ -1327,7 +1327,7 @@
         <v>89</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G9,H9)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1343,7 +1343,7 @@
         <v>94</v>
       </c>
       <c r="N9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001253</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -1359,7 +1359,7 @@
         <v>91</v>
       </c>
       <c r="S9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T9" s="1" t="s">
@@ -1402,7 +1402,7 @@
         <v>89</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G10,H10)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1418,7 +1418,7 @@
         <v>95</v>
       </c>
       <c r="N10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001878</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -1434,7 +1434,7 @@
         <v>91</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T10" s="1" t="s">
@@ -1477,7 +1477,7 @@
         <v>89</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G11,H11)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1493,7 +1493,7 @@
         <v>105</v>
       </c>
       <c r="N11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001882</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -1509,7 +1509,7 @@
         <v>91</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T11" s="1" t="s">
@@ -1552,7 +1552,7 @@
         <v>89</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G12,H12)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1568,7 +1568,7 @@
         <v>105</v>
       </c>
       <c r="N12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001882</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -1584,7 +1584,7 @@
         <v>91</v>
       </c>
       <c r="S12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -1627,7 +1627,7 @@
         <v>89</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G13,H13)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1643,7 +1643,7 @@
         <v>105</v>
       </c>
       <c r="N13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001882</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -1659,7 +1659,7 @@
         <v>91</v>
       </c>
       <c r="S13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T13" s="1" t="s">
@@ -1702,7 +1702,7 @@
         <v>89</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G14,H14)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1718,7 +1718,7 @@
         <v>104</v>
       </c>
       <c r="N14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001883</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -1734,7 +1734,7 @@
         <v>91</v>
       </c>
       <c r="S14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T14" s="1" t="s">
@@ -1777,7 +1777,7 @@
         <v>89</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G15,H15)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1793,7 +1793,7 @@
         <v>104</v>
       </c>
       <c r="N15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001883</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -1809,7 +1809,7 @@
         <v>91</v>
       </c>
       <c r="S15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -1852,7 +1852,7 @@
         <v>89</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G16,H16)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1868,7 +1868,7 @@
         <v>103</v>
       </c>
       <c r="N16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001396</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -1884,7 +1884,7 @@
         <v>91</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T16" s="1" t="s">
@@ -1927,7 +1927,7 @@
         <v>89</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G17,H17)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -1943,7 +1943,7 @@
         <v>103</v>
       </c>
       <c r="N17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001396</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -1959,7 +1959,7 @@
         <v>91</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T17" s="1" t="s">
@@ -2002,7 +2002,7 @@
         <v>89</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G18,H18)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2018,7 +2018,7 @@
         <v>103</v>
       </c>
       <c r="N18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001396</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -2034,7 +2034,7 @@
         <v>91</v>
       </c>
       <c r="S18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T18" s="1" t="s">
@@ -2077,7 +2077,7 @@
         <v>89</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G19,H19)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -2093,7 +2093,7 @@
         <v>96</v>
       </c>
       <c r="N19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -2109,7 +2109,7 @@
         <v>101</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
       </c>
       <c r="T19" s="1" t="s">
@@ -2152,7 +2152,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G20,H20)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -2168,7 +2168,7 @@
         <v>96</v>
       </c>
       <c r="N20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -2184,7 +2184,7 @@
         <v>101</v>
       </c>
       <c r="S20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
       </c>
       <c r="T20" s="1" t="s">
@@ -2227,7 +2227,7 @@
         <v>89</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G21,H21)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -2243,7 +2243,7 @@
         <v>96</v>
       </c>
       <c r="N21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -2259,7 +2259,7 @@
         <v>101</v>
       </c>
       <c r="S21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
       </c>
       <c r="T21" s="1" t="s">
@@ -2302,7 +2302,7 @@
         <v>89</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G22,H22)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -2318,7 +2318,7 @@
         <v>96</v>
       </c>
       <c r="N22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -2334,7 +2334,7 @@
         <v>102</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
       </c>
       <c r="T22" s="1" t="s">
@@ -2377,7 +2377,7 @@
         <v>89</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G23,H23)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -2393,7 +2393,7 @@
         <v>96</v>
       </c>
       <c r="N23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -2409,7 +2409,7 @@
         <v>102</v>
       </c>
       <c r="S23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
       </c>
       <c r="T23" s="1" t="s">
@@ -2452,7 +2452,7 @@
         <v>89</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G24,H24)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -2468,7 +2468,7 @@
         <v>96</v>
       </c>
       <c r="N24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -2484,7 +2484,7 @@
         <v>102</v>
       </c>
       <c r="S24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
       </c>
       <c r="T24" s="1" t="s">
@@ -2527,7 +2527,7 @@
         <v>89</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G25,H25)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -2543,7 +2543,7 @@
         <v>96</v>
       </c>
       <c r="N25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -2559,7 +2559,7 @@
         <v>101</v>
       </c>
       <c r="S25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
       </c>
       <c r="T25" s="1" t="s">
@@ -2602,7 +2602,7 @@
         <v>89</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G26,H26)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -2618,7 +2618,7 @@
         <v>96</v>
       </c>
       <c r="N26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -2634,7 +2634,7 @@
         <v>101</v>
       </c>
       <c r="S26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
       </c>
       <c r="T26" s="1" t="s">
@@ -2677,7 +2677,7 @@
         <v>89</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G27,H27)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -2693,7 +2693,7 @@
         <v>96</v>
       </c>
       <c r="N27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -2709,7 +2709,7 @@
         <v>101</v>
       </c>
       <c r="S27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0034543</v>
       </c>
       <c r="T27" s="1" t="s">
@@ -2752,7 +2752,7 @@
         <v>89</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G28,H28)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -2768,7 +2768,7 @@
         <v>96</v>
       </c>
       <c r="N28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -2784,7 +2784,7 @@
         <v>102</v>
       </c>
       <c r="S28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
       </c>
       <c r="T28" s="1" t="s">
@@ -2827,7 +2827,7 @@
         <v>89</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G29,H29)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -2843,7 +2843,7 @@
         <v>96</v>
       </c>
       <c r="N29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -2859,7 +2859,7 @@
         <v>102</v>
       </c>
       <c r="S29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
       </c>
       <c r="T29" s="1" t="s">
@@ -2902,7 +2902,7 @@
         <v>89</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G30,H30)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -2934,7 +2934,7 @@
         <v>102</v>
       </c>
       <c r="S30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0058036</v>
       </c>
       <c r="T30" s="1" t="s">
@@ -2977,7 +2977,7 @@
         <v>89</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G31,H31)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -2993,7 +2993,7 @@
         <v>97</v>
       </c>
       <c r="N31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001885</v>
       </c>
       <c r="O31" s="1" t="s">
@@ -3009,7 +3009,7 @@
         <v>90</v>
       </c>
       <c r="S31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
       </c>
       <c r="T31" s="1" t="s">
@@ -3068,7 +3068,7 @@
         <v>97</v>
       </c>
       <c r="N32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001885</v>
       </c>
       <c r="O32" s="1" t="s">
@@ -3084,7 +3084,7 @@
         <v>90</v>
       </c>
       <c r="S32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
       </c>
       <c r="T32" s="1" t="s">
@@ -3127,7 +3127,7 @@
         <v>89</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G33,H33)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -3143,7 +3143,7 @@
         <v>97</v>
       </c>
       <c r="N33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001885</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -3159,7 +3159,7 @@
         <v>90</v>
       </c>
       <c r="S33" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">http://purl.obolibrary.org/obo/VTO_0033666 </v>
       </c>
       <c r="T33" s="1" t="s">
@@ -3202,7 +3202,7 @@
         <v>89</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G34,H34)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -3218,7 +3218,7 @@
         <v>97</v>
       </c>
       <c r="N34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001885</v>
       </c>
       <c r="O34" s="1" t="s">
@@ -3234,7 +3234,7 @@
         <v>91</v>
       </c>
       <c r="S34" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T34" s="1" t="s">
@@ -3277,7 +3277,7 @@
         <v>89</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G35,H35)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -3293,7 +3293,7 @@
         <v>93</v>
       </c>
       <c r="N35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
       </c>
       <c r="O35" s="1" t="s">
@@ -3309,7 +3309,7 @@
         <v>91</v>
       </c>
       <c r="S35" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T35" s="1" t="s">
@@ -3352,7 +3352,7 @@
         <v>89</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G36,H36)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -3368,7 +3368,7 @@
         <v>93</v>
       </c>
       <c r="N36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
       </c>
       <c r="O36" s="1" t="s">
@@ -3384,7 +3384,7 @@
         <v>91</v>
       </c>
       <c r="S36" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T36" s="1" t="s">
@@ -3427,7 +3427,7 @@
         <v>89</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G37,H37)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -3443,7 +3443,7 @@
         <v>93</v>
       </c>
       <c r="N37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
       </c>
       <c r="O37" s="1" t="s">
@@ -3459,7 +3459,7 @@
         <v>91</v>
       </c>
       <c r="S37" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T37" s="1" t="s">
@@ -3502,7 +3502,7 @@
         <v>89</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G38,H38)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -3518,7 +3518,7 @@
         <v>93</v>
       </c>
       <c r="N38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001877</v>
       </c>
       <c r="O38" s="1" t="s">
@@ -3534,7 +3534,7 @@
         <v>91</v>
       </c>
       <c r="S38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T38" s="1" t="s">
@@ -3577,7 +3577,7 @@
         <v>89</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G39,H39)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -3593,7 +3593,7 @@
         <v>98</v>
       </c>
       <c r="N39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001335</v>
       </c>
       <c r="O39" s="1" t="s">
@@ -3609,7 +3609,7 @@
         <v>91</v>
       </c>
       <c r="S39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T39" s="1" t="s">
@@ -3652,7 +3652,7 @@
         <v>89</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G40,H40)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -3668,7 +3668,7 @@
         <v>98</v>
       </c>
       <c r="N40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001335</v>
       </c>
       <c r="O40" s="1" t="s">
@@ -3684,7 +3684,7 @@
         <v>91</v>
       </c>
       <c r="S40" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T40" s="1" t="s">
@@ -3727,7 +3727,7 @@
         <v>89</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G41,H41)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -3743,7 +3743,7 @@
         <v>99</v>
       </c>
       <c r="N41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001888</v>
       </c>
       <c r="O41" s="1" t="s">
@@ -3759,7 +3759,7 @@
         <v>91</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T41" s="1" t="s">
@@ -3802,7 +3802,7 @@
         <v>89</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G42,H42)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -3818,7 +3818,7 @@
         <v>99</v>
       </c>
       <c r="N42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001888</v>
       </c>
       <c r="O42" s="1" t="s">
@@ -3834,7 +3834,7 @@
         <v>91</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T42" s="1" t="s">
@@ -3877,7 +3877,7 @@
         <v>89</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G43,H43)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -3893,7 +3893,7 @@
         <v>99</v>
       </c>
       <c r="N43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001888</v>
       </c>
       <c r="O43" s="1" t="s">
@@ -3909,7 +3909,7 @@
         <v>91</v>
       </c>
       <c r="S43" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T43" s="1" t="s">
@@ -3952,7 +3952,7 @@
         <v>89</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G44,H44)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -3968,7 +3968,7 @@
         <v>99</v>
       </c>
       <c r="N44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001888</v>
       </c>
       <c r="O44" s="1" t="s">
@@ -3984,7 +3984,7 @@
         <v>91</v>
       </c>
       <c r="S44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T44" s="1" t="s">
@@ -4027,7 +4027,7 @@
         <v>89</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G45,H45)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -4043,7 +4043,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001889</v>
       </c>
       <c r="O45" s="1" t="s">
@@ -4059,7 +4059,7 @@
         <v>91</v>
       </c>
       <c r="S45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T45" s="1" t="s">
@@ -4102,7 +4102,7 @@
         <v>89</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G46,H46)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -4118,7 +4118,7 @@
         <v>100</v>
       </c>
       <c r="N46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001889</v>
       </c>
       <c r="O46" s="1" t="s">
@@ -4134,7 +4134,7 @@
         <v>91</v>
       </c>
       <c r="S46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T46" s="1" t="s">
@@ -4193,7 +4193,7 @@
         <v>100</v>
       </c>
       <c r="N47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001889</v>
       </c>
       <c r="O47" s="1" t="s">
@@ -4209,7 +4209,7 @@
         <v>91</v>
       </c>
       <c r="S47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T47" s="1" t="s">
@@ -4252,7 +4252,7 @@
         <v>89</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G48,H48)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J48" s="1" t="s">
@@ -4268,7 +4268,7 @@
         <v>100</v>
       </c>
       <c r="N48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001889</v>
       </c>
       <c r="O48" s="1" t="s">
@@ -4284,7 +4284,7 @@
         <v>91</v>
       </c>
       <c r="S48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T48" s="1" t="s">
@@ -4327,7 +4327,7 @@
         <v>89</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G49,H49)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -4343,7 +4343,7 @@
         <v>106</v>
       </c>
       <c r="N49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001335^BFO:0000050(UBERON_2001877)</v>
       </c>
       <c r="O49" s="1" t="s">
@@ -4359,7 +4359,7 @@
         <v>91</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T49" s="1" t="s">
@@ -4402,7 +4402,7 @@
         <v>89</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G50,H50)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -4418,7 +4418,7 @@
         <v>106</v>
       </c>
       <c r="N50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001335^BFO:0000050(UBERON_2001877)</v>
       </c>
       <c r="O50" s="1" t="s">
@@ -4434,7 +4434,7 @@
         <v>91</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T50" s="1" t="s">
@@ -4477,7 +4477,7 @@
         <v>89</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G51,H51)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -4493,7 +4493,7 @@
         <v>106</v>
       </c>
       <c r="N51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001335^BFO:0000050(UBERON_2001877)</v>
       </c>
       <c r="O51" s="1" t="s">
@@ -4509,7 +4509,7 @@
         <v>91</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T51" s="1" t="s">
@@ -4552,7 +4552,7 @@
         <v>89</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G52,H52)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4568,7 +4568,7 @@
         <v>106</v>
       </c>
       <c r="N52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001335^BFO:0000050(UBERON_2001877)</v>
       </c>
       <c r="O52" s="1" t="s">
@@ -4584,7 +4584,7 @@
         <v>91</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T52" s="1" t="s">
@@ -4659,7 +4659,7 @@
         <v>91</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T53" s="1" t="s">
@@ -4702,7 +4702,7 @@
         <v>89</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G54,H54)</f>
         <v>http://purl.obolibrary.org/obo/VTO_0034989</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -4718,7 +4718,7 @@
         <v>96</v>
       </c>
       <c r="N54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://purl.obolibrary.org/obo/UBERON_2001884</v>
       </c>
       <c r="O54" s="1" t="s">
@@ -4734,7 +4734,7 @@
         <v>91</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>http://purl.obolibrary.org/obo/VTO_0033666</v>
       </c>
       <c r="T54" s="1" t="s">
@@ -4752,217 +4752,217 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="S55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S67" s="1" t="str">
+        <f t="shared" ref="S67:S90" si="2">CONCATENATE(Q67,R67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S68" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S56" s="1" t="str">
+    <row r="69" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S69" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S57" s="1" t="str">
+    <row r="70" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S70" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S58" s="1" t="str">
+    <row r="71" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S71" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S59" s="1" t="str">
+    <row r="72" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S72" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S60" s="1" t="str">
+    <row r="73" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S73" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S61" s="1" t="str">
+    <row r="74" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S74" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S62" s="1" t="str">
+    <row r="75" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S75" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S63" s="1" t="str">
+    <row r="76" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S64" s="1" t="str">
+    <row r="77" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S77" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S65" s="1" t="str">
+    <row r="78" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S78" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S66" s="1" t="str">
+    <row r="79" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S79" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S67" s="1" t="str">
-        <f t="shared" ref="S67:S90" si="3">CONCATENATE(Q67,R67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S68" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S69" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S70" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S71" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S72" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S73" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S74" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S75" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S76" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S77" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S78" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S79" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
     <row r="80" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S80" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S81" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S82" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S83" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S84" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S85" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S86" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S87" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S88" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S89" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S90" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
